--- a/Companies/Iron & Steel/JSW Steel Ltd/Pruned_Excel/5_Sep18_Sep19.xlsx
+++ b/Companies/Iron & Steel/JSW Steel Ltd/Pruned_Excel/5_Sep18_Sep19.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '18</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '18</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '19</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '19</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '19</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '19</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '19</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '18</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '18</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>19,093.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>17,947.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19,264.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>17,150.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>15,218.00</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>17,150.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19,264.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>17,947.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>19,093.00</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>19264</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>15218</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>17734.4</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>576.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>446.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>437.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>349.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>302.00</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>349.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>437.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>446.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>576.00</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>576</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>302</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>422</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>19,669.00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>18,393.00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19,701.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>17,499.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>15,520.00</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>17,499.00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19,701.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>18,393.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>19,669.00</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>19701</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>15520</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>18156.4</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>10,099.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10,394.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9,227.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9,733.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>8,347.00</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>9,733.00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9,227.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10,394.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10,099.00</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>10394</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>8347</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>9560</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>259.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>249.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>10.00</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>249.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>259.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>259</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>141</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-1,355.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1,426.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-759.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>-6.00</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-759.00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1,426.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-1,355.00</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>71.00</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1426</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-1355</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>-124.6</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1,545.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,518.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,306.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,331.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1,354.00</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1,331.00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,306.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,518.00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1,545.00</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1545</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1306</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1410.8</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>336.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>361.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>347.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>387.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>330.00</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>387.00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>347.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>361.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>336.00</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>387</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>330</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>352.2</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>858.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>855.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>865.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>806.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>874.00</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>806.00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>865.00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>855.00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>858.00</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>874</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>806</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>851.6</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>2,723.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2,778.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2,960.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2,832.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>2,689.00</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2,832.00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2,960.00</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2,778.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2,723.00</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>2960</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>2689</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>2796.4</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>3,944.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3,583.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3,476.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2,920.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,922.00</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2,920.00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3,476.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3,583.00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3,944.00</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>3944</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>1922</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>3169</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>202.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>67.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>162.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>188.00</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>162.00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>83.00</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>67.00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>202.00</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>202</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>140.4</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>4,146.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3,650.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3,559.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3,082.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>2,110.00</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3,082.00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3,559.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3,650.00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4,146.00</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>4146</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>2110</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>3309.4</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>929.00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>957.00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>956.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>963.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>1,075.00</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>963.00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>956.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>957.00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>929.00</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>1075</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>929</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>976</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>3,217.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2,693.00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,603.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2,119.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,035.00</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2,119.00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,603.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2,693.00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3,217.00</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>3217</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>1035</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2333.4</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>3,217.00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2,693.00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2,603.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2,119.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1,035.00</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2,119.00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2,603.00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2,693.00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3,217.00</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>3217</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>1035</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>2333.4</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>933.00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>801.00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>858.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>696.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>-1,882.00</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>696.00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>858.00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>801.00</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>933.00</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>933</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>-1882</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>281.2</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>2,284.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1,892.00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1,745.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1,423.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>2,917.00</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1,423.00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1,745.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1,892.00</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2,284.00</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>2917</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>1423</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>2052.2</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>2,284.00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1,892.00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1,745.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1,423.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>2,917.00</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1,423.00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1,745.00</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1,892.00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2,284.00</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>2917</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>1423</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>2052.2</v>
       </c>
     </row>
     <row r="23">
@@ -1313,15 +1119,6 @@
         <is>
           <t>240.00</t>
         </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>240</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>240</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>240</v>
       </c>
     </row>
     <row r="24"/>
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>12.14</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>8.540000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -1381,37 +1169,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>12.07</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>7.692</v>
       </c>
     </row>
     <row r="28"/>
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>12.14</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>7.27</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>8.540000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1471,37 +1241,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>12.07</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>7.692</v>
       </c>
     </row>
     <row r="32"/>
